--- a/data/pca/factorExposure/factorExposure_2018-03-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-03-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.005860049397899678</v>
+        <v>0.01192638051581276</v>
       </c>
       <c r="C2">
-        <v>0.02544055923191387</v>
+        <v>-0.02535811873813416</v>
       </c>
       <c r="D2">
-        <v>0.01865650006953247</v>
+        <v>0.02370982207720001</v>
       </c>
       <c r="E2">
-        <v>0.00826805344484749</v>
+        <v>-0.02272410387258871</v>
       </c>
       <c r="F2">
-        <v>0.08093751563451956</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.004610886801029884</v>
+      </c>
+      <c r="G2">
+        <v>-0.01529565288284008</v>
+      </c>
+      <c r="H2">
+        <v>-0.04634625374629835</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.08671362990860984</v>
+        <v>0.05416822153069752</v>
       </c>
       <c r="C3">
-        <v>0.05299101296237711</v>
+        <v>-0.07851534345014632</v>
       </c>
       <c r="D3">
-        <v>-0.007605973874408617</v>
+        <v>0.004259723782984255</v>
       </c>
       <c r="E3">
-        <v>0.03447085225059261</v>
+        <v>-0.03286448357322402</v>
       </c>
       <c r="F3">
-        <v>0.3036999467856266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.08928470134639398</v>
+      </c>
+      <c r="G3">
+        <v>-0.08388723070391423</v>
+      </c>
+      <c r="H3">
+        <v>-0.1104109829702971</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04408987356058497</v>
+        <v>0.03500457861860346</v>
       </c>
       <c r="C4">
-        <v>0.01331799784564033</v>
+        <v>-0.06321679730428952</v>
       </c>
       <c r="D4">
-        <v>0.02893378966919956</v>
+        <v>0.01612042632485892</v>
       </c>
       <c r="E4">
-        <v>-0.03806371406304121</v>
+        <v>0.02394936867654129</v>
       </c>
       <c r="F4">
-        <v>0.05779661376034939</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.006767534094684365</v>
+      </c>
+      <c r="G4">
+        <v>-0.04660122478219392</v>
+      </c>
+      <c r="H4">
+        <v>-0.05404778837546478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03331278954765271</v>
+        <v>0.01993668548035975</v>
       </c>
       <c r="C6">
-        <v>0.01716244245525901</v>
+        <v>-0.06477361124919637</v>
       </c>
       <c r="D6">
-        <v>0.03867857489062033</v>
+        <v>0.01122716919952316</v>
       </c>
       <c r="E6">
-        <v>-0.02773462381890705</v>
+        <v>0.009380362572647726</v>
       </c>
       <c r="F6">
-        <v>0.01987614859204927</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01849272484130312</v>
+      </c>
+      <c r="G6">
+        <v>-0.02624994324384403</v>
+      </c>
+      <c r="H6">
+        <v>-0.05374209269432889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04200406520780636</v>
+        <v>0.008460369820118699</v>
       </c>
       <c r="C7">
-        <v>-0.0311625740299204</v>
+        <v>-0.03408396620874569</v>
       </c>
       <c r="D7">
-        <v>0.02133636183300973</v>
+        <v>0.009782425320697846</v>
       </c>
       <c r="E7">
-        <v>-0.008597397797221143</v>
+        <v>0.04123320891390754</v>
       </c>
       <c r="F7">
-        <v>0.02634848235816489</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02394411250946986</v>
+      </c>
+      <c r="G7">
+        <v>-0.007181891913165442</v>
+      </c>
+      <c r="H7">
+        <v>-0.03564492949882758</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01449793107633851</v>
+        <v>-0.003325433115451035</v>
       </c>
       <c r="C8">
-        <v>-0.003021141074608883</v>
+        <v>-0.009453957325744783</v>
       </c>
       <c r="D8">
-        <v>0.03570797048595478</v>
+        <v>0.001593867004268751</v>
       </c>
       <c r="E8">
-        <v>-0.02719141402689508</v>
+        <v>0.008766290156741848</v>
       </c>
       <c r="F8">
-        <v>0.05154666070342183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.01724648004526438</v>
+      </c>
+      <c r="G8">
+        <v>-0.02995845920582906</v>
+      </c>
+      <c r="H8">
+        <v>-0.025453794010805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03120823378274618</v>
+        <v>0.01984557710387095</v>
       </c>
       <c r="C9">
-        <v>0.006567366136818612</v>
+        <v>-0.04819026576257095</v>
       </c>
       <c r="D9">
-        <v>0.02964777269802053</v>
+        <v>0.01104257509033978</v>
       </c>
       <c r="E9">
-        <v>-0.0117185221523559</v>
+        <v>0.00552204751160281</v>
       </c>
       <c r="F9">
-        <v>0.07247218049175383</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01402085816672004</v>
+      </c>
+      <c r="G9">
+        <v>-0.03249138888776802</v>
+      </c>
+      <c r="H9">
+        <v>-0.05251680253868349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03733931315301371</v>
+        <v>0.138932992539759</v>
       </c>
       <c r="C10">
-        <v>0.007272957651266199</v>
+        <v>0.1384036700489841</v>
       </c>
       <c r="D10">
-        <v>-0.1439198213928264</v>
+        <v>-0.02423612504974644</v>
       </c>
       <c r="E10">
-        <v>0.05448308151597216</v>
+        <v>-0.01628951646863995</v>
       </c>
       <c r="F10">
-        <v>0.04953027734575569</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.04992763894139716</v>
+      </c>
+      <c r="G10">
+        <v>-0.002778492969129747</v>
+      </c>
+      <c r="H10">
+        <v>0.008527456920348304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02729775199566776</v>
+        <v>0.01370997191634992</v>
       </c>
       <c r="C11">
-        <v>0.02357834075723908</v>
+        <v>-0.05011384285786755</v>
       </c>
       <c r="D11">
-        <v>0.03381622751706105</v>
+        <v>-0.001784061289297762</v>
       </c>
       <c r="E11">
-        <v>-0.02433419935239029</v>
+        <v>0.0002139391536959682</v>
       </c>
       <c r="F11">
-        <v>0.02140615757708298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.006050662437793479</v>
+      </c>
+      <c r="G11">
+        <v>-0.01484931288251967</v>
+      </c>
+      <c r="H11">
+        <v>-0.04827495688270809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04010048958558517</v>
+        <v>0.01756240646284897</v>
       </c>
       <c r="C12">
-        <v>0.02582390984284532</v>
+        <v>-0.04795448628648961</v>
       </c>
       <c r="D12">
-        <v>0.02766611070988918</v>
+        <v>0.001986757731456477</v>
       </c>
       <c r="E12">
-        <v>-0.03270137429171183</v>
+        <v>0.0137307153080829</v>
       </c>
       <c r="F12">
-        <v>-0.00436917849474661</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.006662083550779001</v>
+      </c>
+      <c r="G12">
+        <v>-0.007763133067650245</v>
+      </c>
+      <c r="H12">
+        <v>-0.01807087391593728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.004565870066895929</v>
+        <v>0.01514061356523389</v>
       </c>
       <c r="C13">
-        <v>0.0174758159031297</v>
+        <v>-0.02506079319583624</v>
       </c>
       <c r="D13">
-        <v>0.007247372143886852</v>
+        <v>0.01963890435517732</v>
       </c>
       <c r="E13">
-        <v>-0.01002726741270411</v>
+        <v>-0.01570400376640083</v>
       </c>
       <c r="F13">
-        <v>0.06690375596418631</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.005166665172406043</v>
+      </c>
+      <c r="G13">
+        <v>-0.04211315132698087</v>
+      </c>
+      <c r="H13">
+        <v>-0.06824194645948395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02478040724869601</v>
+        <v>0.007491747272693782</v>
       </c>
       <c r="C14">
-        <v>-0.002290908975834553</v>
+        <v>-0.02121996131561327</v>
       </c>
       <c r="D14">
-        <v>0.01388554676277884</v>
+        <v>0.005560463759721592</v>
       </c>
       <c r="E14">
-        <v>-0.01594912577691888</v>
+        <v>0.01374405687503667</v>
       </c>
       <c r="F14">
-        <v>0.04059208562636506</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.01530655705191615</v>
+      </c>
+      <c r="G14">
+        <v>-0.02357484558571322</v>
+      </c>
+      <c r="H14">
+        <v>-0.01694612375392509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02851380456616135</v>
+        <v>0.01567805599098843</v>
       </c>
       <c r="C16">
-        <v>0.02270509861559401</v>
+        <v>-0.04380161671023545</v>
       </c>
       <c r="D16">
-        <v>0.03637956055767212</v>
+        <v>-0.0022656447694506</v>
       </c>
       <c r="E16">
-        <v>-0.02511128176360902</v>
+        <v>0.004584787020583443</v>
       </c>
       <c r="F16">
-        <v>0.02692378902602898</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.004041232922958425</v>
+      </c>
+      <c r="G16">
+        <v>-0.0164657261908417</v>
+      </c>
+      <c r="H16">
+        <v>-0.03725459282525276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03377413930306023</v>
+        <v>0.01642763500732088</v>
       </c>
       <c r="C19">
-        <v>0.01618734858840355</v>
+        <v>-0.04328440334283551</v>
       </c>
       <c r="D19">
-        <v>0.03480879124142804</v>
+        <v>0.009746430538903396</v>
       </c>
       <c r="E19">
-        <v>-0.03898054562564166</v>
+        <v>0.007712657885083633</v>
       </c>
       <c r="F19">
-        <v>0.06892439545933306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.01631042862865653</v>
+      </c>
+      <c r="G19">
+        <v>-0.04740018957651811</v>
+      </c>
+      <c r="H19">
+        <v>-0.05293783243458932</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.003378321778579415</v>
+        <v>0.00380598274219076</v>
       </c>
       <c r="C20">
-        <v>-0.01014406415394144</v>
+        <v>-0.02152919907203502</v>
       </c>
       <c r="D20">
-        <v>0.002467955542612637</v>
+        <v>0.009610048440244413</v>
       </c>
       <c r="E20">
-        <v>-0.01395517559340056</v>
+        <v>-0.0003964395005854876</v>
       </c>
       <c r="F20">
-        <v>0.04316451693891635</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01905283641059186</v>
+      </c>
+      <c r="G20">
+        <v>-0.03597008241211223</v>
+      </c>
+      <c r="H20">
+        <v>-0.0289926954046158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02101075650338027</v>
+        <v>0.008991240202822432</v>
       </c>
       <c r="C21">
-        <v>-0.01232795330365157</v>
+        <v>-0.0217574071669746</v>
       </c>
       <c r="D21">
-        <v>0.02735855163208816</v>
+        <v>0.01178805930887527</v>
       </c>
       <c r="E21">
-        <v>-0.01272130673569311</v>
+        <v>0.0117851711279539</v>
       </c>
       <c r="F21">
-        <v>0.01603062329109738</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.02142070184151649</v>
+      </c>
+      <c r="G21">
+        <v>-0.02155810989502669</v>
+      </c>
+      <c r="H21">
+        <v>-0.04287268279693802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02430342297170723</v>
+        <v>0.009271712400350737</v>
       </c>
       <c r="C24">
-        <v>0.01938850674430694</v>
+        <v>-0.04203035544328899</v>
       </c>
       <c r="D24">
-        <v>0.01668584468594411</v>
+        <v>0.003372384840350471</v>
       </c>
       <c r="E24">
-        <v>-0.02151077168909258</v>
+        <v>0.004574951228940602</v>
       </c>
       <c r="F24">
-        <v>0.02485974240528575</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.008055148581284111</v>
+      </c>
+      <c r="G24">
+        <v>-0.007968243402015072</v>
+      </c>
+      <c r="H24">
+        <v>-0.04322444536130014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02929736332971754</v>
+        <v>0.02377583873209734</v>
       </c>
       <c r="C25">
-        <v>0.01951543213880613</v>
+        <v>-0.04996786517031226</v>
       </c>
       <c r="D25">
-        <v>0.02658266397649578</v>
+        <v>0.006030812912846199</v>
       </c>
       <c r="E25">
-        <v>-0.02040440819272286</v>
+        <v>0.01086739113984119</v>
       </c>
       <c r="F25">
-        <v>0.02967214772153201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.009995201403451568</v>
+      </c>
+      <c r="G25">
+        <v>-0.01758188991923879</v>
+      </c>
+      <c r="H25">
+        <v>-0.04011209948845972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01412458588087819</v>
+        <v>0.006803826132011199</v>
       </c>
       <c r="C26">
-        <v>0.005293678672630493</v>
+        <v>-0.006048197134371762</v>
       </c>
       <c r="D26">
-        <v>0.01350061800147711</v>
+        <v>0.02200513694061996</v>
       </c>
       <c r="E26">
-        <v>0.009931266167642477</v>
+        <v>0.003123084818629971</v>
       </c>
       <c r="F26">
-        <v>0.04931790535880672</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.01328702205384367</v>
+      </c>
+      <c r="G26">
+        <v>-0.009439568742943383</v>
+      </c>
+      <c r="H26">
+        <v>-0.02041763816670531</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.02853974112045314</v>
+        <v>0.008469191418487702</v>
       </c>
       <c r="C27">
-        <v>0.008803490996320584</v>
+        <v>-0.009274340487231178</v>
       </c>
       <c r="D27">
-        <v>-0.002264027848933168</v>
+        <v>-0.00199982905079568</v>
       </c>
       <c r="E27">
-        <v>-0.03151550807770281</v>
+        <v>0.009996284165435736</v>
       </c>
       <c r="F27">
-        <v>0.003428328647145366</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.005530983232493542</v>
+      </c>
+      <c r="G27">
+        <v>-0.007993320765047296</v>
+      </c>
+      <c r="H27">
+        <v>0.01025567390087249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.07639345262689648</v>
+        <v>0.1928195246470531</v>
       </c>
       <c r="C28">
-        <v>0.01885951217440653</v>
+        <v>0.1777666708888318</v>
       </c>
       <c r="D28">
-        <v>-0.2088625613283157</v>
+        <v>-0.01937459617164254</v>
       </c>
       <c r="E28">
-        <v>0.09022722427652345</v>
+        <v>0.0004343029720070019</v>
       </c>
       <c r="F28">
-        <v>0.04974766668419634</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.04992949421140381</v>
+      </c>
+      <c r="G28">
+        <v>0.007484499976444745</v>
+      </c>
+      <c r="H28">
+        <v>0.009568674724164023</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02504952276549431</v>
+        <v>0.012599661980881</v>
       </c>
       <c r="C29">
-        <v>0.001021471318004989</v>
+        <v>-0.01895748852484753</v>
       </c>
       <c r="D29">
-        <v>0.01523103905364531</v>
+        <v>0.004399974134437231</v>
       </c>
       <c r="E29">
-        <v>-0.01766705998333934</v>
+        <v>0.01121106264893367</v>
       </c>
       <c r="F29">
-        <v>0.03860452568664474</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.01611082869781137</v>
+      </c>
+      <c r="G29">
+        <v>-0.02312443192836411</v>
+      </c>
+      <c r="H29">
+        <v>-0.009725390284041416</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.02926893749175376</v>
+        <v>0.02252055384948166</v>
       </c>
       <c r="C30">
-        <v>0.06431752409067767</v>
+        <v>-0.08847726234653082</v>
       </c>
       <c r="D30">
-        <v>0.05223943250268041</v>
+        <v>0.02119599404600504</v>
       </c>
       <c r="E30">
-        <v>-0.0273379332195633</v>
+        <v>-0.02707655252417468</v>
       </c>
       <c r="F30">
-        <v>0.07974183556801893</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.01341302911195849</v>
+      </c>
+      <c r="G30">
+        <v>-0.05120056276853488</v>
+      </c>
+      <c r="H30">
+        <v>-0.07528756954439443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04579596423471111</v>
+        <v>0.03748224123026074</v>
       </c>
       <c r="C31">
-        <v>0.03042820393333192</v>
+        <v>-0.03355217650014178</v>
       </c>
       <c r="D31">
-        <v>0.01675159270060199</v>
+        <v>-0.001522297028330331</v>
       </c>
       <c r="E31">
-        <v>-0.02359069392228649</v>
+        <v>0.00500019594852039</v>
       </c>
       <c r="F31">
-        <v>0.03086663114263715</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.009900240610427314</v>
+      </c>
+      <c r="G31">
+        <v>-0.008834921262563475</v>
+      </c>
+      <c r="H31">
+        <v>-0.003368647335761922</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02430876826086054</v>
+        <v>0.001877627910770636</v>
       </c>
       <c r="C32">
-        <v>-0.01792916768433637</v>
+        <v>-0.01267224141340665</v>
       </c>
       <c r="D32">
-        <v>0.05020636601800479</v>
+        <v>-0.00882970970072839</v>
       </c>
       <c r="E32">
-        <v>-0.04137302757401364</v>
+        <v>0.03365551021477903</v>
       </c>
       <c r="F32">
-        <v>0.03522168258910525</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.007737366302807947</v>
+      </c>
+      <c r="G32">
+        <v>-0.04712760701619747</v>
+      </c>
+      <c r="H32">
+        <v>-0.04939670495608574</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02812593982391725</v>
+        <v>0.01745448000136789</v>
       </c>
       <c r="C33">
-        <v>0.04068377597301847</v>
+        <v>-0.04824832383410552</v>
       </c>
       <c r="D33">
-        <v>0.04590862622943659</v>
+        <v>0.009665635310996023</v>
       </c>
       <c r="E33">
-        <v>-0.009707194997729028</v>
+        <v>-0.02224125211978638</v>
       </c>
       <c r="F33">
-        <v>0.05412346403667193</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.0175069129812032</v>
+      </c>
+      <c r="G33">
+        <v>-0.01855640999809038</v>
+      </c>
+      <c r="H33">
+        <v>-0.04940917691111115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03245386180343275</v>
+        <v>0.02248397198851423</v>
       </c>
       <c r="C34">
-        <v>0.01460934211405289</v>
+        <v>-0.05054173095853072</v>
       </c>
       <c r="D34">
-        <v>0.03455373355270553</v>
+        <v>-0.01007172852897308</v>
       </c>
       <c r="E34">
-        <v>-0.03144855242285573</v>
+        <v>0.01829801266112461</v>
       </c>
       <c r="F34">
-        <v>0.02119957838221608</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.01026710439625359</v>
+      </c>
+      <c r="G34">
+        <v>-0.01111520067755351</v>
+      </c>
+      <c r="H34">
+        <v>-0.03331263701771375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02014767604478392</v>
+        <v>0.01418728365243687</v>
       </c>
       <c r="C36">
-        <v>0.0002917315615772457</v>
+        <v>-0.006951492600999947</v>
       </c>
       <c r="D36">
-        <v>0.005711243158144474</v>
+        <v>0.008500773368595874</v>
       </c>
       <c r="E36">
-        <v>-0.01169623636742031</v>
+        <v>0.007096479021796937</v>
       </c>
       <c r="F36">
-        <v>0.02587003556820133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01158574150164068</v>
+      </c>
+      <c r="G36">
+        <v>-0.008850703189423317</v>
+      </c>
+      <c r="H36">
+        <v>-0.0142236687846343</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01261892582718742</v>
+        <v>0.02607751773972666</v>
       </c>
       <c r="C38">
-        <v>0.01079121326900078</v>
+        <v>-0.02222243146212136</v>
       </c>
       <c r="D38">
-        <v>-0.001851492786357046</v>
+        <v>-0.01180154125261365</v>
       </c>
       <c r="E38">
-        <v>0.01815952691027322</v>
+        <v>-0.0002282508282871406</v>
       </c>
       <c r="F38">
-        <v>0.04330708278360342</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.001854772264800896</v>
+      </c>
+      <c r="G38">
+        <v>-0.01538322172438471</v>
+      </c>
+      <c r="H38">
+        <v>-0.03542019335746822</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02373224681424453</v>
+        <v>0.00123377252017383</v>
       </c>
       <c r="C39">
-        <v>0.01878674270193851</v>
+        <v>-0.08805650947686268</v>
       </c>
       <c r="D39">
-        <v>0.05671217569188584</v>
+        <v>0.008087178997123025</v>
       </c>
       <c r="E39">
-        <v>-0.02383207325102927</v>
+        <v>-0.004411173535040509</v>
       </c>
       <c r="F39">
-        <v>0.04287335434008056</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.008387060129681609</v>
+      </c>
+      <c r="G39">
+        <v>-0.02408498037591167</v>
+      </c>
+      <c r="H39">
+        <v>-0.0780873981339761</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.009477152592862427</v>
+        <v>0.0197826202792427</v>
       </c>
       <c r="C40">
-        <v>0.04242728806906527</v>
+        <v>-0.0299030701739302</v>
       </c>
       <c r="D40">
-        <v>0.01510793348335278</v>
+        <v>0.00728195191186373</v>
       </c>
       <c r="E40">
-        <v>-0.03155671727954302</v>
+        <v>-0.0127626027205065</v>
       </c>
       <c r="F40">
-        <v>0.02871187992734348</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02542155542652344</v>
+      </c>
+      <c r="G40">
+        <v>-0.02192011795041578</v>
+      </c>
+      <c r="H40">
+        <v>-0.04884959841737705</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.009110794409231845</v>
+        <v>0.01283486927324459</v>
       </c>
       <c r="C41">
-        <v>0.00234059767094529</v>
+        <v>0.007683717463422769</v>
       </c>
       <c r="D41">
-        <v>0.004741664460475164</v>
+        <v>0.001890193816210138</v>
       </c>
       <c r="E41">
-        <v>0.0133436897099659</v>
+        <v>0.002662148165246561</v>
       </c>
       <c r="F41">
-        <v>0.003751989048649799</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.005983730407881779</v>
+      </c>
+      <c r="G41">
+        <v>0.008964869585334113</v>
+      </c>
+      <c r="H41">
+        <v>0.002021423518215021</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.217520480205576</v>
+        <v>0.08153362901240511</v>
       </c>
       <c r="C42">
-        <v>0.2912411132837882</v>
+        <v>-0.2141115897273647</v>
       </c>
       <c r="D42">
-        <v>0.2965691831797739</v>
+        <v>0.1185076848812434</v>
       </c>
       <c r="E42">
-        <v>0.8163471929824155</v>
+        <v>-0.3426164283441799</v>
       </c>
       <c r="F42">
-        <v>-0.2728250257114919</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.3559841431019105</v>
+      </c>
+      <c r="G42">
+        <v>0.8171879645117243</v>
+      </c>
+      <c r="H42">
+        <v>-0.06304036975922254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01129834920669357</v>
+        <v>0.01392049588611682</v>
       </c>
       <c r="C43">
-        <v>0.006548052172603088</v>
+        <v>0.005827998720022049</v>
       </c>
       <c r="D43">
-        <v>0.006692208162252151</v>
+        <v>0.002519836910376628</v>
       </c>
       <c r="E43">
-        <v>0.001371375699965054</v>
+        <v>0.002175250136545202</v>
       </c>
       <c r="F43">
-        <v>0.02417406022993348</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.004439547569572357</v>
+      </c>
+      <c r="G43">
+        <v>0.007852496315295754</v>
+      </c>
+      <c r="H43">
+        <v>-0.007685912092429224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02554984075133794</v>
+        <v>0.007479600412596123</v>
       </c>
       <c r="C44">
-        <v>-0.007815093983657926</v>
+        <v>-0.03981741808564382</v>
       </c>
       <c r="D44">
-        <v>0.02702344896936549</v>
+        <v>0.002958890218034427</v>
       </c>
       <c r="E44">
-        <v>0.005957143132599432</v>
+        <v>0.007142281565747676</v>
       </c>
       <c r="F44">
-        <v>0.08554558055952968</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.03021062040200307</v>
+      </c>
+      <c r="G44">
+        <v>-0.01841893874681833</v>
+      </c>
+      <c r="H44">
+        <v>-0.06123677579490202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01921608310348837</v>
+        <v>0.003811916460784289</v>
       </c>
       <c r="C46">
-        <v>0.008958730442420956</v>
+        <v>-0.01361555723466096</v>
       </c>
       <c r="D46">
-        <v>0.04522340327849966</v>
+        <v>0.009939661743365278</v>
       </c>
       <c r="E46">
-        <v>-0.02196128294112246</v>
+        <v>0.004244657923064378</v>
       </c>
       <c r="F46">
-        <v>0.05590161751968445</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01268490883786313</v>
+      </c>
+      <c r="G46">
+        <v>-0.01595197573331079</v>
+      </c>
+      <c r="H46">
+        <v>-0.01560880420901464</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07293000108405771</v>
+        <v>0.05290073248082793</v>
       </c>
       <c r="C47">
-        <v>0.05159867921193147</v>
+        <v>-0.06923661053278325</v>
       </c>
       <c r="D47">
-        <v>0.007109697843156602</v>
+        <v>-0.01158171462147857</v>
       </c>
       <c r="E47">
-        <v>-0.03627952053887869</v>
+        <v>0.01167385738080407</v>
       </c>
       <c r="F47">
-        <v>0.003248494916973492</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.0003696182682083706</v>
+      </c>
+      <c r="G47">
+        <v>-0.003980270444635984</v>
+      </c>
+      <c r="H47">
+        <v>0.03548425763313974</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01820923806746989</v>
+        <v>0.0136106274505189</v>
       </c>
       <c r="C48">
-        <v>0.00953266567735276</v>
+        <v>-0.01595602691171738</v>
       </c>
       <c r="D48">
-        <v>0.01325640411487096</v>
+        <v>-0.000834735985667919</v>
       </c>
       <c r="E48">
-        <v>-0.01111000938819562</v>
+        <v>0.002180577664448138</v>
       </c>
       <c r="F48">
-        <v>0.03008728442798412</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.006751961520475131</v>
+      </c>
+      <c r="G48">
+        <v>-0.01059962247656632</v>
+      </c>
+      <c r="H48">
+        <v>-0.01876508928533901</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08140152017175752</v>
+        <v>0.05640826853201034</v>
       </c>
       <c r="C50">
-        <v>0.02943571003048713</v>
+        <v>-0.06455408380485289</v>
       </c>
       <c r="D50">
-        <v>0.02775369931351453</v>
+        <v>-0.009870955778486739</v>
       </c>
       <c r="E50">
-        <v>-0.02075137090071437</v>
+        <v>0.02413218768451442</v>
       </c>
       <c r="F50">
-        <v>0.01679454805687503</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.01546559989260492</v>
+      </c>
+      <c r="G50">
+        <v>-0.00179020060768728</v>
+      </c>
+      <c r="H50">
+        <v>0.01934877197055173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01670238806488815</v>
+        <v>0.01352767462802269</v>
       </c>
       <c r="C51">
-        <v>-0.003889694966670706</v>
+        <v>-0.01726468412301764</v>
       </c>
       <c r="D51">
-        <v>-0.005916560701420864</v>
+        <v>0.004590892472506967</v>
       </c>
       <c r="E51">
-        <v>-0.003402695176357111</v>
+        <v>0.009331925376485303</v>
       </c>
       <c r="F51">
-        <v>0.09238384278021235</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.01319971438630557</v>
+      </c>
+      <c r="G51">
+        <v>-0.02063907763910924</v>
+      </c>
+      <c r="H51">
+        <v>-0.05003970129784632</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.08481631825269147</v>
+        <v>0.06990288290011246</v>
       </c>
       <c r="C53">
-        <v>0.05374610460105029</v>
+        <v>-0.1067253184009691</v>
       </c>
       <c r="D53">
-        <v>0.03840044255667023</v>
+        <v>-0.01335813710642728</v>
       </c>
       <c r="E53">
-        <v>-0.05075120122174514</v>
+        <v>0.02154101621958337</v>
       </c>
       <c r="F53">
-        <v>-0.02975870656790074</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.01872994006454451</v>
+      </c>
+      <c r="G53">
+        <v>0.00351513930556898</v>
+      </c>
+      <c r="H53">
+        <v>0.03675605321054141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02719290088675484</v>
+        <v>0.02382830221190438</v>
       </c>
       <c r="C54">
-        <v>0.002608711982891151</v>
+        <v>-0.00123651121434879</v>
       </c>
       <c r="D54">
-        <v>-0.002770831811209137</v>
+        <v>-0.007106775954249034</v>
       </c>
       <c r="E54">
-        <v>-0.02210215741208579</v>
+        <v>0.00471843879399025</v>
       </c>
       <c r="F54">
-        <v>0.0295563577501556</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.0210671449646685</v>
+      </c>
+      <c r="G54">
+        <v>-0.02497028623670199</v>
+      </c>
+      <c r="H54">
+        <v>-0.007982524212748992</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.07870555446602366</v>
+        <v>0.05025377417079081</v>
       </c>
       <c r="C55">
-        <v>0.05001182163821644</v>
+        <v>-0.09511849565928579</v>
       </c>
       <c r="D55">
-        <v>0.04473375125202537</v>
+        <v>-0.01057689986088785</v>
       </c>
       <c r="E55">
-        <v>-0.03748921211020588</v>
+        <v>0.01339910841980794</v>
       </c>
       <c r="F55">
-        <v>-0.03236818435663593</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.001475828255902189</v>
+      </c>
+      <c r="G55">
+        <v>-0.0008625321679454693</v>
+      </c>
+      <c r="H55">
+        <v>0.03954020599890634</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1166823826678782</v>
+        <v>0.09420747154003904</v>
       </c>
       <c r="C56">
-        <v>0.08194458542941112</v>
+        <v>-0.1364240301913096</v>
       </c>
       <c r="D56">
-        <v>0.01883067473403574</v>
+        <v>-0.02314604494970075</v>
       </c>
       <c r="E56">
-        <v>-0.08337756433310216</v>
+        <v>0.03089506508214231</v>
       </c>
       <c r="F56">
-        <v>-0.05452473230916374</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.0413800337568736</v>
+      </c>
+      <c r="G56">
+        <v>0.009285228663600506</v>
+      </c>
+      <c r="H56">
+        <v>0.08124259321203146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03095261744822816</v>
+        <v>0.02169644378144819</v>
       </c>
       <c r="C57">
-        <v>0.02225077964834595</v>
+        <v>-0.03027789733977881</v>
       </c>
       <c r="D57">
-        <v>0.01906026864440773</v>
+        <v>0.021561795338158</v>
       </c>
       <c r="E57">
-        <v>0.03353620989526888</v>
+        <v>-0.01582021251342304</v>
       </c>
       <c r="F57">
-        <v>0.05507257241657203</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.04017436552433307</v>
+      </c>
+      <c r="G57">
+        <v>-0.03417687791253571</v>
+      </c>
+      <c r="H57">
+        <v>-0.06242761821615656</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1319075116523617</v>
+        <v>0.08314814066166416</v>
       </c>
       <c r="C58">
-        <v>0.2362584387225697</v>
+        <v>-0.1817694115274797</v>
       </c>
       <c r="D58">
-        <v>0.1977629349626726</v>
+        <v>-0.001880751165414222</v>
       </c>
       <c r="E58">
-        <v>-0.01617159769312414</v>
+        <v>-0.5228441380369412</v>
       </c>
       <c r="F58">
-        <v>0.5922765386131353</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.5736294148092185</v>
+      </c>
+      <c r="G58">
+        <v>-0.5159629099897578</v>
+      </c>
+      <c r="H58">
+        <v>0.1574275711976083</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05663255563739561</v>
+        <v>0.2128531548125416</v>
       </c>
       <c r="C59">
-        <v>0.03857937000608797</v>
+        <v>0.1635716148779462</v>
       </c>
       <c r="D59">
-        <v>-0.1896901730484672</v>
+        <v>-0.02810470983233757</v>
       </c>
       <c r="E59">
-        <v>0.04451868073149051</v>
+        <v>-0.01240997508892317</v>
       </c>
       <c r="F59">
-        <v>0.08019715134418542</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01014375345799268</v>
+      </c>
+      <c r="G59">
+        <v>-0.01081520428302845</v>
+      </c>
+      <c r="H59">
+        <v>-0.02094536009230628</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1180746511562988</v>
+        <v>0.2183452196874636</v>
       </c>
       <c r="C60">
-        <v>0.1166914794735315</v>
+        <v>-0.07785266930344677</v>
       </c>
       <c r="D60">
-        <v>-0.01933129811171991</v>
+        <v>-0.01342183640475391</v>
       </c>
       <c r="E60">
-        <v>0.01934597418946551</v>
+        <v>-0.02890608229586763</v>
       </c>
       <c r="F60">
-        <v>0.1775059587272174</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1297990400589593</v>
+      </c>
+      <c r="G60">
+        <v>-0.05252619802517029</v>
+      </c>
+      <c r="H60">
+        <v>-0.3905222174295991</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02083285633210836</v>
+        <v>0.01206204229104752</v>
       </c>
       <c r="C61">
-        <v>0.01411296223599301</v>
+        <v>-0.06289346466938429</v>
       </c>
       <c r="D61">
-        <v>0.0419058579713853</v>
+        <v>0.000785315538130081</v>
       </c>
       <c r="E61">
-        <v>-0.008099286090067086</v>
+        <v>0.00495293213492427</v>
       </c>
       <c r="F61">
-        <v>0.01990087216068365</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.008295185546497471</v>
+      </c>
+      <c r="G61">
+        <v>-0.0204372676412081</v>
+      </c>
+      <c r="H61">
+        <v>-0.05773701251103912</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01738867524950902</v>
+        <v>0.007329244340506777</v>
       </c>
       <c r="C63">
-        <v>0.004887460318058415</v>
+        <v>-0.02405292265261603</v>
       </c>
       <c r="D63">
-        <v>0.01887492797558528</v>
+        <v>0.005894889631159099</v>
       </c>
       <c r="E63">
-        <v>-0.003385838145604093</v>
+        <v>0.01042779805482587</v>
       </c>
       <c r="F63">
-        <v>-6.513771040858157e-05</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.005234366654584852</v>
+      </c>
+      <c r="G63">
+        <v>-0.009716962184433763</v>
+      </c>
+      <c r="H63">
+        <v>-0.01189019090918136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03878020735970073</v>
+        <v>0.0342964075389278</v>
       </c>
       <c r="C64">
-        <v>0.007704486124168331</v>
+        <v>-0.04559377735692754</v>
       </c>
       <c r="D64">
-        <v>0.02250881872709097</v>
+        <v>-0.000287408313068033</v>
       </c>
       <c r="E64">
-        <v>-0.0216109526014033</v>
+        <v>0.02063248558702825</v>
       </c>
       <c r="F64">
-        <v>0.007055796595793157</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.009788750422618902</v>
+      </c>
+      <c r="G64">
+        <v>0.0124322587813266</v>
+      </c>
+      <c r="H64">
+        <v>-0.03973304530853426</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03741117324855755</v>
+        <v>0.03914743383589333</v>
       </c>
       <c r="C65">
-        <v>0.01934006040774495</v>
+        <v>-0.08363054870544756</v>
       </c>
       <c r="D65">
-        <v>0.03887762748949351</v>
+        <v>0.01008840862362927</v>
       </c>
       <c r="E65">
-        <v>-0.03229991268411053</v>
+        <v>0.01489341815609271</v>
       </c>
       <c r="F65">
-        <v>0.01275511473542755</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.03587956641125343</v>
+      </c>
+      <c r="G65">
+        <v>-0.02798481635359568</v>
+      </c>
+      <c r="H65">
+        <v>-0.06514940159029746</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.02914886746905342</v>
+        <v>0.01013601985312318</v>
       </c>
       <c r="C66">
-        <v>0.03014251965109791</v>
+        <v>-0.1182968416591046</v>
       </c>
       <c r="D66">
-        <v>0.05915727784890261</v>
+        <v>0.004438833852183673</v>
       </c>
       <c r="E66">
-        <v>-0.05130485551782311</v>
+        <v>-0.0001360546597579528</v>
       </c>
       <c r="F66">
-        <v>0.03116994697274302</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.03110169871231601</v>
+      </c>
+      <c r="G66">
+        <v>-0.03968811826365689</v>
+      </c>
+      <c r="H66">
+        <v>-0.08710233161062035</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02051867860561327</v>
+        <v>0.04812498805482375</v>
       </c>
       <c r="C67">
-        <v>0.01641019766296265</v>
+        <v>-0.02994974700365974</v>
       </c>
       <c r="D67">
-        <v>-0.01076231882092371</v>
+        <v>-0.01225412283325289</v>
       </c>
       <c r="E67">
-        <v>0.01152551008707538</v>
+        <v>0.00487217007747837</v>
       </c>
       <c r="F67">
-        <v>0.02781063322972569</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.0110361665883748</v>
+      </c>
+      <c r="G67">
+        <v>-0.01618182283318046</v>
+      </c>
+      <c r="H67">
+        <v>-0.03413697098057612</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06915251519604408</v>
+        <v>0.2099168237154131</v>
       </c>
       <c r="C68">
-        <v>0.03387963760645547</v>
+        <v>0.2021544951657306</v>
       </c>
       <c r="D68">
-        <v>-0.2071959629366828</v>
+        <v>-0.007845731429976282</v>
       </c>
       <c r="E68">
-        <v>0.05770961232821146</v>
+        <v>-0.02222516201346646</v>
       </c>
       <c r="F68">
-        <v>0.07698791273540248</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.05929137024389564</v>
+      </c>
+      <c r="G68">
+        <v>0.005675504943812943</v>
+      </c>
+      <c r="H68">
+        <v>0.03528214260696937</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05863485154893134</v>
+        <v>0.05472947928223497</v>
       </c>
       <c r="C69">
-        <v>0.04152620650269113</v>
+        <v>-0.06338328661167604</v>
       </c>
       <c r="D69">
-        <v>0.01103634271845895</v>
+        <v>-0.01595188240218434</v>
       </c>
       <c r="E69">
-        <v>-0.03788750739878036</v>
+        <v>0.01887620228818748</v>
       </c>
       <c r="F69">
-        <v>0.003864374596689356</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.02179110557042424</v>
+      </c>
+      <c r="G69">
+        <v>-0.005085983172442679</v>
+      </c>
+      <c r="H69">
+        <v>0.002987078063040735</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07298193511601261</v>
+        <v>0.1853454273643294</v>
       </c>
       <c r="C71">
-        <v>0.04281475980067866</v>
+        <v>0.1579163988330369</v>
       </c>
       <c r="D71">
-        <v>-0.2109493923307849</v>
+        <v>-0.01326820006663248</v>
       </c>
       <c r="E71">
-        <v>0.09894026343105371</v>
+        <v>-0.02561367757352307</v>
       </c>
       <c r="F71">
-        <v>0.0805909871179266</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.06338495086943476</v>
+      </c>
+      <c r="G71">
+        <v>0.01266561464128232</v>
+      </c>
+      <c r="H71">
+        <v>0.01154718438387391</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09432149222478535</v>
+        <v>0.05282206597892385</v>
       </c>
       <c r="C72">
-        <v>0.08130861751543859</v>
+        <v>-0.112423105613893</v>
       </c>
       <c r="D72">
-        <v>0.06885030550359203</v>
+        <v>-0.01694427917005813</v>
       </c>
       <c r="E72">
-        <v>-0.08618152588592264</v>
+        <v>-0.0003107856800812918</v>
       </c>
       <c r="F72">
-        <v>0.09050649367322033</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.04201557613471179</v>
+      </c>
+      <c r="G72">
+        <v>-0.05759901112006315</v>
+      </c>
+      <c r="H72">
+        <v>-0.09390909553565659</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1359425352178978</v>
+        <v>0.2799739530706468</v>
       </c>
       <c r="C73">
-        <v>0.1939408716663464</v>
+        <v>-0.1582534553525054</v>
       </c>
       <c r="D73">
-        <v>-0.01141918787919411</v>
+        <v>-0.01291401530367084</v>
       </c>
       <c r="E73">
-        <v>0.04021644810679846</v>
+        <v>-0.06449328998253674</v>
       </c>
       <c r="F73">
-        <v>0.200321468377945</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1769756562673709</v>
+      </c>
+      <c r="G73">
+        <v>-0.0531454990519989</v>
+      </c>
+      <c r="H73">
+        <v>-0.4724679341126345</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1077917229605154</v>
+        <v>0.09206858328926254</v>
       </c>
       <c r="C74">
-        <v>0.0764691967890051</v>
+        <v>-0.1399023959006183</v>
       </c>
       <c r="D74">
-        <v>0.02487281729031661</v>
+        <v>-0.02295062392304294</v>
       </c>
       <c r="E74">
-        <v>-0.05761021222592316</v>
+        <v>0.02703370081007515</v>
       </c>
       <c r="F74">
-        <v>-0.07042275054848837</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.02824550385293884</v>
+      </c>
+      <c r="G74">
+        <v>0.001874950709920552</v>
+      </c>
+      <c r="H74">
+        <v>0.05301887129885511</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1896196576597579</v>
+        <v>0.1974399133210517</v>
       </c>
       <c r="C75">
-        <v>0.1546188813265032</v>
+        <v>-0.2343317666798328</v>
       </c>
       <c r="D75">
-        <v>0.01223824755050464</v>
+        <v>-0.04910521500094207</v>
       </c>
       <c r="E75">
-        <v>-0.1692506717183049</v>
+        <v>0.03984082823393995</v>
       </c>
       <c r="F75">
-        <v>-0.108174031666053</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.08790549593298494</v>
+      </c>
+      <c r="G75">
+        <v>-0.002327605866696356</v>
+      </c>
+      <c r="H75">
+        <v>0.1738265700602038</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2454481238378709</v>
+        <v>0.1451859825936354</v>
       </c>
       <c r="C76">
-        <v>0.1510911344878037</v>
+        <v>-0.2055524980000506</v>
       </c>
       <c r="D76">
-        <v>0.02334277431344639</v>
+        <v>-0.04176098890178475</v>
       </c>
       <c r="E76">
-        <v>-0.1924820429241237</v>
+        <v>0.07656926898880065</v>
       </c>
       <c r="F76">
-        <v>-0.2047790801998079</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.062104988693269</v>
+      </c>
+      <c r="G76">
+        <v>0.01287829910136052</v>
+      </c>
+      <c r="H76">
+        <v>0.1514009912703196</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.08927143043501669</v>
+        <v>0.04449453010435584</v>
       </c>
       <c r="C77">
-        <v>0.07752651477550933</v>
+        <v>-0.088815676538961</v>
       </c>
       <c r="D77">
-        <v>0.06500720748298495</v>
+        <v>0.007289951176479181</v>
       </c>
       <c r="E77">
-        <v>0.03007684027623386</v>
+        <v>-0.01924936272007679</v>
       </c>
       <c r="F77">
-        <v>0.0994410349733973</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.04642981495857942</v>
+      </c>
+      <c r="G77">
+        <v>-0.01718259436057425</v>
+      </c>
+      <c r="H77">
+        <v>-0.01497078278509447</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05468774648317652</v>
+        <v>0.02038464748656922</v>
       </c>
       <c r="C78">
-        <v>0.0262304495982613</v>
+        <v>-0.07658173017339774</v>
       </c>
       <c r="D78">
-        <v>0.1000061288711075</v>
+        <v>0.002125945997296695</v>
       </c>
       <c r="E78">
-        <v>-0.03250964445510274</v>
+        <v>0.005394134410662325</v>
       </c>
       <c r="F78">
-        <v>0.07002658944707257</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.01156392103125475</v>
+      </c>
+      <c r="G78">
+        <v>-0.03755555170037167</v>
+      </c>
+      <c r="H78">
+        <v>-0.08884269724128147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.6540227746794924</v>
+        <v>0.1005849687778456</v>
       </c>
       <c r="C80">
-        <v>-0.7272711659559816</v>
+        <v>-0.1146108150632914</v>
       </c>
       <c r="D80">
-        <v>0.07654330698882107</v>
+        <v>-0.006772670292901001</v>
       </c>
       <c r="E80">
-        <v>0.08110287035551302</v>
+        <v>0.7435782851704862</v>
       </c>
       <c r="F80">
-        <v>0.0491828031062011</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.6039608119639082</v>
+      </c>
+      <c r="G80">
+        <v>0.002361599459591059</v>
+      </c>
+      <c r="H80">
+        <v>-0.09975778075987633</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1583748004806449</v>
+        <v>0.1264789002806646</v>
       </c>
       <c r="C81">
-        <v>0.1087784004748828</v>
+        <v>-0.1477494929049924</v>
       </c>
       <c r="D81">
-        <v>0.001507243570303474</v>
+        <v>-0.03049114720191647</v>
       </c>
       <c r="E81">
-        <v>-0.1320482683450418</v>
+        <v>0.04071012992370587</v>
       </c>
       <c r="F81">
-        <v>-0.08877863988845094</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.04161087072359583</v>
+      </c>
+      <c r="G81">
+        <v>0.003685758156026434</v>
+      </c>
+      <c r="H81">
+        <v>0.1065715539657147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02598023046455404</v>
+        <v>0.02093096171732064</v>
       </c>
       <c r="C83">
-        <v>0.0254191746686033</v>
+        <v>-0.02369392217112054</v>
       </c>
       <c r="D83">
-        <v>0.02388147382584581</v>
+        <v>0.002465216324875283</v>
       </c>
       <c r="E83">
-        <v>0.01799466938125187</v>
+        <v>-0.01022595860310967</v>
       </c>
       <c r="F83">
-        <v>0.04683078681834492</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.02019689231867414</v>
+      </c>
+      <c r="G83">
+        <v>-0.0185652873926143</v>
+      </c>
+      <c r="H83">
+        <v>-0.04608131150529293</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2057086661792668</v>
+        <v>0.175604114713063</v>
       </c>
       <c r="C85">
-        <v>0.1584390934778242</v>
+        <v>-0.2237959946449404</v>
       </c>
       <c r="D85">
-        <v>0.02586769286723592</v>
+        <v>-0.03335214920673971</v>
       </c>
       <c r="E85">
-        <v>-0.1728631367032405</v>
+        <v>0.04533280375257688</v>
       </c>
       <c r="F85">
-        <v>-0.1450502052627267</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1127534081218073</v>
+      </c>
+      <c r="G85">
+        <v>0.03070872122867923</v>
+      </c>
+      <c r="H85">
+        <v>0.1150543848416961</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.007468253497966528</v>
+        <v>0.01005428162116602</v>
       </c>
       <c r="C86">
-        <v>-0.001874083528856762</v>
+        <v>-0.0352083406645016</v>
       </c>
       <c r="D86">
-        <v>0.06559447187571826</v>
+        <v>0.006211899195164705</v>
       </c>
       <c r="E86">
-        <v>0.006214154526345965</v>
+        <v>-0.001065860799369839</v>
       </c>
       <c r="F86">
-        <v>0.04127434786237241</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02667179625772743</v>
+      </c>
+      <c r="G86">
+        <v>-0.004841680331394729</v>
+      </c>
+      <c r="H86">
+        <v>-0.07621623988786777</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02789802852817841</v>
+        <v>0.005026115684234301</v>
       </c>
       <c r="C87">
-        <v>0.0169479888097924</v>
+        <v>-0.03928908190988525</v>
       </c>
       <c r="D87">
-        <v>0.03998667431588963</v>
+        <v>0.007798081537721629</v>
       </c>
       <c r="E87">
-        <v>-0.009216387962061022</v>
+        <v>-0.01308641100846358</v>
       </c>
       <c r="F87">
-        <v>0.09454924909625974</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.03740659580721879</v>
+      </c>
+      <c r="G87">
+        <v>-0.04593630680015529</v>
+      </c>
+      <c r="H87">
+        <v>-0.08209059098486624</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.02071020547396346</v>
+        <v>0.04270292751285972</v>
       </c>
       <c r="C88">
-        <v>-0.002023310312545492</v>
+        <v>-0.01906011663173974</v>
       </c>
       <c r="D88">
-        <v>0.0003174063186668754</v>
+        <v>0.01618369792646469</v>
       </c>
       <c r="E88">
-        <v>-0.008447549897399542</v>
+        <v>0.02976507811002007</v>
       </c>
       <c r="F88">
-        <v>-0.02690256217236557</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01325039903362758</v>
+      </c>
+      <c r="G88">
+        <v>0.001068461870619875</v>
+      </c>
+      <c r="H88">
+        <v>-0.002786026980951427</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.0953476988023753</v>
+        <v>0.3290046131544401</v>
       </c>
       <c r="C89">
-        <v>0.06789524779781195</v>
+        <v>0.2833890893662931</v>
       </c>
       <c r="D89">
-        <v>-0.3484704560830479</v>
+        <v>-0.02375859736534656</v>
       </c>
       <c r="E89">
-        <v>0.06904140303549419</v>
+        <v>-0.01095757208028621</v>
       </c>
       <c r="F89">
-        <v>0.09012708957870724</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.001757782913279417</v>
+      </c>
+      <c r="G89">
+        <v>0.0259916907476125</v>
+      </c>
+      <c r="H89">
+        <v>0.01202379765195961</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.08462241390266356</v>
+        <v>0.2743572395627776</v>
       </c>
       <c r="C90">
-        <v>0.02911973277348396</v>
+        <v>0.2624990168103679</v>
       </c>
       <c r="D90">
-        <v>-0.3500343314607331</v>
+        <v>-0.02222757369176846</v>
       </c>
       <c r="E90">
-        <v>0.09068145421431173</v>
+        <v>-0.01402055685542037</v>
       </c>
       <c r="F90">
-        <v>0.03852754437598888</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04969914216079852</v>
+      </c>
+      <c r="G90">
+        <v>0.02738332474728117</v>
+      </c>
+      <c r="H90">
+        <v>0.05792999260845786</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2385840890501712</v>
+        <v>0.1887161597940437</v>
       </c>
       <c r="C91">
-        <v>0.2034440785209814</v>
+        <v>-0.211161058102639</v>
       </c>
       <c r="D91">
-        <v>0.0331320209071304</v>
+        <v>-0.04597097655052255</v>
       </c>
       <c r="E91">
-        <v>-0.1551738201109991</v>
+        <v>0.03407319524592699</v>
       </c>
       <c r="F91">
-        <v>-0.2204991477474352</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.08683341122415313</v>
+      </c>
+      <c r="G91">
+        <v>0.02926706564909711</v>
+      </c>
+      <c r="H91">
+        <v>0.1916233742931651</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1506151589082243</v>
+        <v>0.2836889655320091</v>
       </c>
       <c r="C92">
-        <v>0.08914818421571674</v>
+        <v>0.1711604021811565</v>
       </c>
       <c r="D92">
-        <v>-0.4389691339946322</v>
+        <v>-0.06620200157885144</v>
       </c>
       <c r="E92">
-        <v>-0.006054814358855834</v>
+        <v>-0.001102082865282008</v>
       </c>
       <c r="F92">
-        <v>-0.1317941307738127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.0494534868991486</v>
+      </c>
+      <c r="G92">
+        <v>-0.005874739787463407</v>
+      </c>
+      <c r="H92">
+        <v>0.1549861724897863</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.08214921432897918</v>
+        <v>0.3064554854635278</v>
       </c>
       <c r="C93">
-        <v>0.07887819782968612</v>
+        <v>0.2565739797634179</v>
       </c>
       <c r="D93">
-        <v>-0.409979436998525</v>
+        <v>-0.03170392664982168</v>
       </c>
       <c r="E93">
-        <v>0.1410346781593404</v>
+        <v>-0.0429230549393286</v>
       </c>
       <c r="F93">
-        <v>0.0527893975683771</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.02140319481107619</v>
+      </c>
+      <c r="G93">
+        <v>0.03792902633640798</v>
+      </c>
+      <c r="H93">
+        <v>-0.01010210623512634</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2231255404005633</v>
+        <v>0.2303071379566345</v>
       </c>
       <c r="C94">
-        <v>0.2020791528529868</v>
+        <v>-0.2362980342210279</v>
       </c>
       <c r="D94">
-        <v>0.0253912777401249</v>
+        <v>-0.03686967837232916</v>
       </c>
       <c r="E94">
-        <v>-0.2452274433778142</v>
+        <v>0.05196195531750023</v>
       </c>
       <c r="F94">
-        <v>-0.1476635723790703</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.1976133780425544</v>
+      </c>
+      <c r="G94">
+        <v>0.005157559093800545</v>
+      </c>
+      <c r="H94">
+        <v>0.4195405639008495</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.006006110668031493</v>
+        <v>0.02895003144860812</v>
       </c>
       <c r="C95">
-        <v>0.09737989284379045</v>
+        <v>-0.1033114222747825</v>
       </c>
       <c r="D95">
-        <v>0.02814435200903206</v>
+        <v>-0.01212566334381172</v>
       </c>
       <c r="E95">
-        <v>-0.03270242357518648</v>
+        <v>-0.09932209961865968</v>
       </c>
       <c r="F95">
-        <v>0.01339834068089113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.006907873543278569</v>
+      </c>
+      <c r="G95">
+        <v>-0.02745020374532605</v>
+      </c>
+      <c r="H95">
+        <v>-0.03775550666181148</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1142839261408127</v>
+        <v>0.1841346179863829</v>
       </c>
       <c r="C98">
-        <v>0.1242343252404223</v>
+        <v>-0.07028067264593911</v>
       </c>
       <c r="D98">
-        <v>-0.02830485604744916</v>
+        <v>-0.03554038269174135</v>
       </c>
       <c r="E98">
-        <v>0.07369077529211084</v>
+        <v>-0.06688997202030167</v>
       </c>
       <c r="F98">
-        <v>0.1821471657070315</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.03853892351807919</v>
+      </c>
+      <c r="G98">
+        <v>-0.0347653277491352</v>
+      </c>
+      <c r="H98">
+        <v>-0.3399961958566598</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.01045943577727959</v>
+        <v>0.006556712991020932</v>
       </c>
       <c r="C101">
-        <v>-0.0007659969257331977</v>
+        <v>-0.01850406682103648</v>
       </c>
       <c r="D101">
-        <v>0.05007718011609805</v>
+        <v>0.005338936296342082</v>
       </c>
       <c r="E101">
-        <v>-0.02468916606104475</v>
+        <v>-0.0146443024189809</v>
       </c>
       <c r="F101">
-        <v>0.1765176261987287</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.04820819607635191</v>
+      </c>
+      <c r="G101">
+        <v>-0.06349421548545056</v>
+      </c>
+      <c r="H101">
+        <v>-0.006880463168588456</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1010420434843061</v>
+        <v>0.09276763273851535</v>
       </c>
       <c r="C102">
-        <v>0.07457012159578749</v>
+        <v>-0.1122262469435119</v>
       </c>
       <c r="D102">
-        <v>0.009630827732333926</v>
+        <v>-0.01042562488530365</v>
       </c>
       <c r="E102">
-        <v>-0.08846616395132169</v>
+        <v>0.02553580119553967</v>
       </c>
       <c r="F102">
-        <v>-0.09051445680876641</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.0559110726770495</v>
+      </c>
+      <c r="G102">
+        <v>0.006681978659898681</v>
+      </c>
+      <c r="H102">
+        <v>0.07072091616028565</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04758477585208167</v>
+        <v>0.01173082632762719</v>
       </c>
       <c r="C103">
-        <v>0.01837124545729622</v>
+        <v>-0.01915497984588201</v>
       </c>
       <c r="D103">
-        <v>0.01671289132413507</v>
+        <v>-0.00176369749766437</v>
       </c>
       <c r="E103">
-        <v>-0.04419488545969624</v>
+        <v>0.0126505728556622</v>
       </c>
       <c r="F103">
-        <v>-0.01156965589511229</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.009168015548859931</v>
+      </c>
+      <c r="G103">
+        <v>-0.00509006859268556</v>
+      </c>
+      <c r="H103">
+        <v>0.0177047625741031</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1144228605802678</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.01185149489599158</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9792029583676704</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.05265342461853402</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.06458029723249564</v>
+      </c>
+      <c r="G104">
+        <v>-0.09055156790079349</v>
+      </c>
+      <c r="H104">
+        <v>0.05994811967736086</v>
       </c>
     </row>
   </sheetData>
